--- a/테이블/전투/방어/내부 조건 데이터 테이블.xlsx
+++ b/테이블/전투/방어/내부 조건 데이터 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\방어\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A02AC-CBCE-4260-BC61-0CABAD81D68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A03EE2-2E4C-4C69-9A36-51556ED10078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인 정의" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>속성 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>합일 공격 속성</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1026,20 +1029,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C19B3A-9DE6-4959-8646-89E4535BEFF0}">
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
@@ -1072,6 +1074,75 @@
         <v>방어 불가능 속성</v>
       </c>
     </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
